--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-73711.79566217495</v>
+        <v>-70226.65431298158</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20669866.80324265</v>
+        <v>20639065.39645837</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522829.0433376703</v>
+        <v>533237.3100841903</v>
       </c>
     </row>
     <row r="11">
@@ -3998,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2.786362146091506</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4016,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>0.2941343268911041</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>5.383215863126759</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4065,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>5.040345688132867</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4116,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>0.5004428436220648</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.317757766117567</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3.077625506829147</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>9.30535103639021</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>15.53307656595127</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>21.76080209551234</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>21.46369671481425</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>15.10952313093397</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>15.10952313093397</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>15.10952313093397</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>15.10952313093397</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.671931349997848</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>13.21159771560388</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>13.21159771560388</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>13.21159771560388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>13.21159771560388</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>6.8574241317236</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6.8574241317236</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>6.8574241317236</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>6.8574241317236</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.5032505478433185</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.730976077404382</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>8.036843175059289</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>14.26456870462035</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>20.49229423418141</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>25.16252739216591</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>20.07126912132463</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.07126912132463</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>13.71709553744435</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>13.71709553744435</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>13.71709553744435</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>13.71709553744435</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>13.21159771560388</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>13.21159771560388</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>13.21159771560388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.5032505478433182</v>
       </c>
     </row>
   </sheetData>
@@ -22559,49 +22561,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.1018657343323</v>
+        <v>400.1136478495508</v>
       </c>
       <c r="H2" t="n">
-        <v>292.9048785094973</v>
+        <v>293.0255420969791</v>
       </c>
       <c r="I2" t="n">
-        <v>27.07619471985473</v>
+        <v>27.53042471681696</v>
       </c>
       <c r="J2" t="n">
-        <v>12.97091307001162</v>
+        <v>13.97090537154</v>
       </c>
       <c r="K2" t="n">
-        <v>11.11174419326662</v>
+        <v>12.61047343199521</v>
       </c>
       <c r="L2" t="n">
-        <v>7.727993863709251</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M2" t="n">
-        <v>3.400615951243275</v>
+        <v>5.4694522901083</v>
       </c>
       <c r="N2" t="n">
-        <v>2.698324440689774</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O2" t="n">
-        <v>4.736819892972257</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P2" t="n">
-        <v>9.705809258733449</v>
+        <v>11.40009215480153</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.19580129441775</v>
+        <v>16.46813718922236</v>
       </c>
       <c r="R2" t="n">
-        <v>22.85848047371684</v>
+        <v>23.59858876881258</v>
       </c>
       <c r="S2" t="n">
-        <v>98.9072657730528</v>
+        <v>99.17575072359497</v>
       </c>
       <c r="T2" t="n">
-        <v>217.867929252686</v>
+        <v>217.9195054620551</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7558558253827</v>
+        <v>255.7567983946002</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22638,22 +22640,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>93.00953868489636</v>
+        <v>93.01584267229842</v>
       </c>
       <c r="H3" t="n">
-        <v>51.84085324370895</v>
+        <v>51.90173649046046</v>
       </c>
       <c r="I3" t="n">
-        <v>12.60217301993835</v>
+        <v>12.81921820022869</v>
       </c>
       <c r="J3" t="n">
-        <v>10.81417497546607</v>
+        <v>11.40976353962329</v>
       </c>
       <c r="K3" t="n">
-        <v>5.654704037195785</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.368767089206766</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22665,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.969571729742785</v>
+        <v>3.173356832861341</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.510414034237824</v>
+        <v>10.31511249629769</v>
       </c>
       <c r="R3" t="n">
-        <v>17.23470976831577</v>
+        <v>17.62610996859475</v>
       </c>
       <c r="S3" t="n">
-        <v>78.58490876731203</v>
+        <v>78.7020025683986</v>
       </c>
       <c r="T3" t="n">
-        <v>140.043171196518</v>
+        <v>140.0685806895991</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9136920551073</v>
+        <v>182.9141067911206</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -22717,49 +22719,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5074652857436</v>
+        <v>164.5127503370169</v>
       </c>
       <c r="H4" t="n">
-        <v>141.5853770881884</v>
+        <v>141.6323659985995</v>
       </c>
       <c r="I4" t="n">
-        <v>96.15651836282449</v>
+        <v>96.31545426838666</v>
       </c>
       <c r="J4" t="n">
-        <v>14.49047107016879</v>
+        <v>14.86412419518603</v>
       </c>
       <c r="K4" t="n">
-        <v>10.86442027532886</v>
+        <v>11.47844714143665</v>
       </c>
       <c r="L4" t="n">
-        <v>8.993937537569462</v>
+        <v>9.779680524136499</v>
       </c>
       <c r="M4" t="n">
-        <v>8.948026908651901</v>
+        <v>9.776482718690756</v>
       </c>
       <c r="N4" t="n">
-        <v>7.445517414732592</v>
+        <v>8.254274397298504</v>
       </c>
       <c r="O4" t="n">
-        <v>10.21135956493829</v>
+        <v>10.95837753944877</v>
       </c>
       <c r="P4" t="n">
-        <v>11.86644107301737</v>
+        <v>12.50564400155399</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.33996518983377</v>
+        <v>17.78251616508563</v>
       </c>
       <c r="R4" t="n">
-        <v>42.65932590885844</v>
+        <v>42.89696103247105</v>
       </c>
       <c r="S4" t="n">
-        <v>166.918661879449</v>
+        <v>167.0107659093652</v>
       </c>
       <c r="T4" t="n">
-        <v>240.5345059345929</v>
+        <v>240.5570875173058</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3778621207188</v>
+        <v>277.3781503962427</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -22796,49 +22798,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.0867433522511</v>
+        <v>400.1018657343323</v>
       </c>
       <c r="H5" t="n">
-        <v>292.750006414009</v>
+        <v>292.9048785094973</v>
       </c>
       <c r="I5" t="n">
-        <v>26.49318908467228</v>
+        <v>27.07619471985473</v>
       </c>
       <c r="J5" t="n">
-        <v>11.687419793854</v>
+        <v>12.97091307001162</v>
       </c>
       <c r="K5" t="n">
-        <v>9.188120483615116</v>
+        <v>11.11174419326662</v>
       </c>
       <c r="L5" t="n">
-        <v>5.341568553442613</v>
+        <v>7.727993863709251</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7452579786414901</v>
+        <v>3.400615951243275</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.698324440689774</v>
       </c>
       <c r="O5" t="n">
-        <v>2.188868639101635</v>
+        <v>4.736819892972257</v>
       </c>
       <c r="P5" t="n">
-        <v>7.531191812490523</v>
+        <v>9.705809258733449</v>
       </c>
       <c r="Q5" t="n">
-        <v>13.562754156455</v>
+        <v>15.19580129441775</v>
       </c>
       <c r="R5" t="n">
-        <v>21.90854914031357</v>
+        <v>22.85848047371684</v>
       </c>
       <c r="S5" t="n">
-        <v>98.56266449137924</v>
+        <v>98.9072657730528</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8017310251259</v>
+        <v>217.867929252686</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7546460348163</v>
+        <v>255.7558558253827</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22875,19 +22877,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
-        <v>93.00144749716304</v>
+        <v>93.00953868489636</v>
       </c>
       <c r="H6" t="n">
-        <v>51.76270940428461</v>
+        <v>51.84085324370895</v>
       </c>
       <c r="I6" t="n">
-        <v>12.32359484578712</v>
+        <v>12.60217301993835</v>
       </c>
       <c r="J6" t="n">
-        <v>10.04973517299579</v>
+        <v>10.81417497546607</v>
       </c>
       <c r="K6" t="n">
-        <v>4.348154656593753</v>
+        <v>5.654704037195785</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22902,22 +22904,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.424509749335602</v>
+        <v>1.969571729742785</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.477581017613943</v>
+        <v>9.510414034237824</v>
       </c>
       <c r="R6" t="n">
-        <v>16.73234637554063</v>
+        <v>17.23470976831577</v>
       </c>
       <c r="S6" t="n">
-        <v>78.43461850393234</v>
+        <v>78.58490876731203</v>
       </c>
       <c r="T6" t="n">
-        <v>140.0105580319263</v>
+        <v>140.043171196518</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9131597401249</v>
+        <v>182.9136920551073</v>
       </c>
       <c r="V6" t="n">
         <v>202.9234074721264</v>
@@ -22954,49 +22956,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5006819057487</v>
+        <v>164.5074652857436</v>
       </c>
       <c r="H7" t="n">
-        <v>141.5250666733238</v>
+        <v>141.5853770881884</v>
       </c>
       <c r="I7" t="n">
-        <v>95.95252362624773</v>
+        <v>96.15651836282449</v>
       </c>
       <c r="J7" t="n">
-        <v>14.01088610452265</v>
+        <v>14.49047107016879</v>
       </c>
       <c r="K7" t="n">
-        <v>10.07631485409216</v>
+        <v>10.86442027532886</v>
       </c>
       <c r="L7" t="n">
-        <v>7.985433933586291</v>
+        <v>8.993937537569462</v>
       </c>
       <c r="M7" t="n">
-        <v>7.884701260890999</v>
+        <v>8.948026908651901</v>
       </c>
       <c r="N7" t="n">
-        <v>6.40747527422576</v>
+        <v>7.445517414732592</v>
       </c>
       <c r="O7" t="n">
-        <v>9.252559636191176</v>
+        <v>10.21135956493829</v>
       </c>
       <c r="P7" t="n">
-        <v>11.04602209616816</v>
+        <v>11.86644107301737</v>
       </c>
       <c r="Q7" t="n">
-        <v>16.77194961588923</v>
+        <v>17.33996518983377</v>
       </c>
       <c r="R7" t="n">
-        <v>42.35432047744712</v>
+        <v>42.65932590885844</v>
       </c>
       <c r="S7" t="n">
-        <v>166.8004460662635</v>
+        <v>166.918661879449</v>
       </c>
       <c r="T7" t="n">
-        <v>240.5055224018871</v>
+        <v>240.5345059345929</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3774921181736</v>
+        <v>277.3778621207188</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -23270,22 +23272,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H11" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I11" t="n">
-        <v>26.3295615791925</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J11" t="n">
-        <v>11.3271920526384</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K11" t="n">
-        <v>8.648232478941665</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L11" t="n">
-        <v>4.671789743482165</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.473755640880874</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6.920859413233046</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q11" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R11" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S11" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T11" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
@@ -23349,19 +23351,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H12" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I12" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J12" t="n">
-        <v>9.835185998134863</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K12" t="n">
-        <v>3.981455943866639</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>8.187704076657049</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R12" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S12" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T12" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U12" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V12" t="n">
         <v>202.9234074721264</v>
@@ -23428,49 +23430,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I13" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J13" t="n">
-        <v>13.87628484707558</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K13" t="n">
-        <v>9.855123640234183</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L13" t="n">
-        <v>7.702385333317634</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M13" t="n">
-        <v>7.586266198249906</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N13" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O13" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P13" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R13" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S13" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T13" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -23507,22 +23509,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H14" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I14" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J14" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K14" t="n">
-        <v>8.648232478941665</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L14" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>6.92085941323305</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q14" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R14" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S14" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T14" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23586,19 +23588,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H15" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I15" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J15" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K15" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R15" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S15" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T15" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U15" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V15" t="n">
         <v>202.9234074721264</v>
@@ -23665,49 +23667,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I16" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J16" t="n">
-        <v>13.87628484707558</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K16" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L16" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M16" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N16" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O16" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P16" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R16" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S16" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T16" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -23744,22 +23746,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H17" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I17" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J17" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K17" t="n">
-        <v>8.648232478941665</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L17" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>6.92085941323305</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q17" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R17" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S17" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T17" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -23823,19 +23825,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H18" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I18" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J18" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K18" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R18" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S18" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T18" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V18" t="n">
         <v>202.9234074721264</v>
@@ -23902,49 +23904,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H19" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I19" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J19" t="n">
-        <v>13.87628484707558</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K19" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L19" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M19" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N19" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O19" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P19" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R19" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S19" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T19" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -23981,22 +23983,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H20" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I20" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J20" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K20" t="n">
-        <v>8.648232478941665</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L20" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>6.92085941323305</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q20" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R20" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S20" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T20" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24060,19 +24062,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H21" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I21" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J21" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K21" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R21" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S21" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T21" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U21" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V21" t="n">
         <v>202.9234074721264</v>
@@ -24139,49 +24141,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I22" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J22" t="n">
-        <v>13.87628484707558</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K22" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L22" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M22" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800344</v>
       </c>
       <c r="N22" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O22" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P22" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R22" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S22" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T22" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -24218,22 +24220,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H23" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I23" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J23" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K23" t="n">
-        <v>8.648232478941665</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L23" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>6.92085941323305</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q23" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R23" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S23" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T23" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
@@ -24297,19 +24299,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H24" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I24" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J24" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K24" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R24" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S24" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T24" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U24" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V24" t="n">
         <v>202.9234074721264</v>
@@ -24376,49 +24378,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H25" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I25" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J25" t="n">
-        <v>13.87628484707558</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K25" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L25" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M25" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N25" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O25" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P25" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R25" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S25" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T25" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -24455,22 +24457,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H26" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I26" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J26" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K26" t="n">
-        <v>8.648232478941665</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L26" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>6.92085941323305</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q26" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R26" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S26" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T26" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
@@ -24534,19 +24536,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H27" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I27" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J27" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K27" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R27" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S27" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T27" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U27" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V27" t="n">
         <v>202.9234074721264</v>
@@ -24613,49 +24615,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H28" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I28" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J28" t="n">
-        <v>13.87628484707558</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K28" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L28" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M28" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N28" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O28" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P28" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R28" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S28" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T28" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24692,22 +24694,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H29" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I29" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J29" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K29" t="n">
-        <v>8.648232478941665</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L29" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>6.92085941323305</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q29" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R29" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S29" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T29" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24771,19 +24773,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H30" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I30" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J30" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K30" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R30" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S30" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T30" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U30" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V30" t="n">
         <v>202.9234074721264</v>
@@ -24850,49 +24852,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H31" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I31" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J31" t="n">
-        <v>13.87628484707558</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K31" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L31" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M31" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N31" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O31" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P31" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R31" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S31" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T31" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -24929,22 +24931,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H32" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I32" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J32" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K32" t="n">
-        <v>8.648232478941665</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L32" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>6.92085941323305</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q32" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R32" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S32" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T32" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U32" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
@@ -25008,19 +25010,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H33" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I33" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J33" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K33" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R33" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S33" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T33" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U33" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V33" t="n">
         <v>202.9234074721264</v>
@@ -25087,49 +25089,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H34" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I34" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J34" t="n">
-        <v>13.87628484707558</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K34" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L34" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M34" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N34" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O34" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P34" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R34" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S34" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T34" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -25166,22 +25168,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H35" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I35" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J35" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K35" t="n">
-        <v>8.648232478941665</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L35" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>6.92085941323305</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q35" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R35" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S35" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T35" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U35" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25245,19 +25247,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H36" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I36" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J36" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K36" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R36" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S36" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T36" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U36" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V36" t="n">
         <v>202.9234074721264</v>
@@ -25324,49 +25326,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H37" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I37" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J37" t="n">
-        <v>13.87628484707558</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K37" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L37" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M37" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N37" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O37" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P37" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R37" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S37" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T37" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -25403,22 +25405,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H38" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I38" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J38" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K38" t="n">
-        <v>8.648232478941665</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L38" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>6.92085941323305</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q38" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R38" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S38" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T38" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -25482,19 +25484,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H39" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I39" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J39" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K39" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R39" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S39" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T39" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U39" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V39" t="n">
         <v>202.9234074721264</v>
@@ -25561,49 +25563,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H40" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I40" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J40" t="n">
-        <v>13.87628484707558</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K40" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L40" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M40" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N40" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O40" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P40" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R40" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S40" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T40" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -25640,22 +25642,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H41" t="n">
-        <v>292.7065397078163</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I41" t="n">
-        <v>26.32956157919251</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J41" t="n">
-        <v>11.32719205263841</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K41" t="n">
-        <v>8.648232478941665</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L41" t="n">
-        <v>4.671789743482172</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>6.92085941323305</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q41" t="n">
-        <v>13.10441994252908</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R41" t="n">
-        <v>21.64193954842993</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S41" t="n">
-        <v>98.46594801952604</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T41" t="n">
-        <v>217.783151700692</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7543064926221</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25719,19 +25721,19 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>92.99917660853818</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H42" t="n">
-        <v>51.74077740098654</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I42" t="n">
-        <v>12.24540854883441</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J42" t="n">
-        <v>9.835185998134865</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K42" t="n">
-        <v>3.981455943866642</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>8.187704076657051</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R42" t="n">
-        <v>16.59135208004222</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S42" t="n">
-        <v>78.3924377437292</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T42" t="n">
-        <v>140.001404757162</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U42" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V42" t="n">
         <v>202.9234074721264</v>
@@ -25798,49 +25800,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H43" t="n">
-        <v>141.5081398339535</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I43" t="n">
-        <v>95.89527006322407</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J43" t="n">
-        <v>13.87628484707558</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K43" t="n">
-        <v>9.855123640234185</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L43" t="n">
-        <v>7.702385333317636</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M43" t="n">
-        <v>7.586266198249907</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N43" t="n">
-        <v>6.11613633033911</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O43" t="n">
-        <v>8.983460966937351</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P43" t="n">
-        <v>10.81576169638987</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.61252925040833</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R43" t="n">
-        <v>42.26871705461914</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S43" t="n">
-        <v>166.7672673841848</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T43" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -25877,22 +25879,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.0824990748248</v>
+        <v>400.0364165471253</v>
       </c>
       <c r="H44" t="n">
-        <v>292.7065397078163</v>
+        <v>292.2345970210142</v>
       </c>
       <c r="I44" t="n">
-        <v>26.32956157919251</v>
+        <v>24.55296493005908</v>
       </c>
       <c r="J44" t="n">
-        <v>11.32719205263841</v>
+        <v>1.125363269264898</v>
       </c>
       <c r="K44" t="n">
-        <v>8.648232478941665</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>4.671789743482172</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1.473755640880881</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>6.92085941323305</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>13.10441994252908</v>
+        <v>1.83739353138256</v>
       </c>
       <c r="R44" t="n">
-        <v>21.64193954842993</v>
+        <v>18.74720796782874</v>
       </c>
       <c r="S44" t="n">
-        <v>98.46594801952604</v>
+        <v>97.4158424195746</v>
       </c>
       <c r="T44" t="n">
-        <v>217.783151700692</v>
+        <v>217.5814254356876</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7543064926221</v>
+        <v>250.3674040272794</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25953,22 +25955,22 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>86.41874016588341</v>
       </c>
       <c r="G45" t="n">
-        <v>92.99917660853818</v>
+        <v>92.97452028251483</v>
       </c>
       <c r="H45" t="n">
-        <v>51.74077740098654</v>
+        <v>51.50264919965579</v>
       </c>
       <c r="I45" t="n">
-        <v>12.24540854883441</v>
+        <v>11.39649556952178</v>
       </c>
       <c r="J45" t="n">
-        <v>9.835185998134865</v>
+        <v>1.215072049791043</v>
       </c>
       <c r="K45" t="n">
-        <v>3.981455943866642</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25986,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>8.187704076657051</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>16.59135208004222</v>
+        <v>15.06049703097857</v>
       </c>
       <c r="S45" t="n">
-        <v>78.3924377437292</v>
+        <v>71.64382545398212</v>
       </c>
       <c r="T45" t="n">
-        <v>140.001404757162</v>
+        <v>139.902022460603</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9130103395574</v>
+        <v>182.9113882128454</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>194.0557205514929</v>
       </c>
       <c r="X45" t="n">
         <v>161.8425727710037</v>
@@ -26035,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4987780690097</v>
+        <v>164.4781070335314</v>
       </c>
       <c r="H46" t="n">
-        <v>141.5081398339535</v>
+        <v>141.3243555367009</v>
       </c>
       <c r="I46" t="n">
-        <v>95.89527006322407</v>
+        <v>95.27363565084021</v>
       </c>
       <c r="J46" t="n">
-        <v>13.87628484707558</v>
+        <v>12.41484263875957</v>
       </c>
       <c r="K46" t="n">
-        <v>9.855123640234185</v>
+        <v>7.453525154664099</v>
       </c>
       <c r="L46" t="n">
-        <v>7.702385333317636</v>
+        <v>4.629166113207059</v>
       </c>
       <c r="M46" t="n">
-        <v>7.586266198249907</v>
+        <v>4.345987427773775</v>
       </c>
       <c r="N46" t="n">
-        <v>6.11613633033911</v>
+        <v>2.952904146645739</v>
       </c>
       <c r="O46" t="n">
-        <v>8.983460966937351</v>
+        <v>6.061704061331426</v>
       </c>
       <c r="P46" t="n">
-        <v>10.81576169638987</v>
+        <v>8.315693914541319</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.61252925040833</v>
+        <v>14.881611906857</v>
       </c>
       <c r="R46" t="n">
-        <v>42.26871705461914</v>
+        <v>41.33927213211291</v>
       </c>
       <c r="S46" t="n">
-        <v>166.7672673841848</v>
+        <v>166.4070276113493</v>
       </c>
       <c r="T46" t="n">
-        <v>240.4973878267295</v>
+        <v>240.4090661296859</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3773882725333</v>
+        <v>277.3762607615072</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>42076.54640926953</v>
+        <v>39771.2767719711</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>44927.35816506201</v>
+        <v>42076.54640926953</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>45639.50171855517</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45639.50171855517</v>
+        <v>55058.03794465346</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8228.540021787127</v>
+      </c>
+      <c r="C2" t="n">
         <v>8705.492360538521</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9295.315482426624</v>
       </c>
       <c r="D2" t="n">
         <v>9295.315482426624</v>
       </c>
       <c r="E2" t="n">
-        <v>9442.655527976931</v>
+        <v>9698.499310457095</v>
       </c>
       <c r="F2" t="n">
-        <v>9442.655527976927</v>
+        <v>9698.499310457095</v>
       </c>
       <c r="G2" t="n">
-        <v>9442.655527976931</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="H2" t="n">
-        <v>9442.655527976927</v>
+        <v>9698.499310457091</v>
       </c>
       <c r="I2" t="n">
-        <v>9442.655527976929</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="J2" t="n">
-        <v>9442.655527976931</v>
+        <v>9698.499310457091</v>
       </c>
       <c r="K2" t="n">
-        <v>9442.655527976929</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="L2" t="n">
-        <v>9442.655527976929</v>
+        <v>9698.499310457095</v>
       </c>
       <c r="M2" t="n">
-        <v>9442.655527976929</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="N2" t="n">
-        <v>9442.655527976931</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="O2" t="n">
-        <v>9442.655527976929</v>
+        <v>9698.499310457091</v>
       </c>
       <c r="P2" t="n">
-        <v>9442.655527976929</v>
+        <v>11391.31819544554</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46455.06528471148</v>
+        <v>43630.90718593419</v>
       </c>
       <c r="C3" t="n">
-        <v>3425.404752748641</v>
+        <v>2668.793398452307</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3221.566157245948</v>
       </c>
       <c r="E3" t="n">
-        <v>848.2039727711841</v>
+        <v>2596.242943674092</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>7668.302756395657</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.147961274838988</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>34614.67030379765</v>
+      </c>
+      <c r="C5" t="n">
         <v>34678.56176909891</v>
-      </c>
-      <c r="C5" t="n">
-        <v>34760.56666652932</v>
       </c>
       <c r="D5" t="n">
         <v>34760.56666652932</v>
       </c>
       <c r="E5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="F5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="G5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="H5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="I5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="J5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="K5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="L5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="M5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="N5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="O5" t="n">
-        <v>1155.982321943114</v>
+        <v>1203.414618767601</v>
       </c>
       <c r="P5" t="n">
-        <v>1155.982321943114</v>
+        <v>1788.346765386282</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-72428.13469327187</v>
+        <v>-70017.03746794471</v>
       </c>
       <c r="C6" t="n">
-        <v>-28890.65593685133</v>
+        <v>-28641.86280701269</v>
       </c>
       <c r="D6" t="n">
-        <v>-25465.25118410269</v>
+        <v>-28686.81734134864</v>
       </c>
       <c r="E6" t="n">
-        <v>7438.469233262633</v>
+        <v>5898.841748015402</v>
       </c>
       <c r="F6" t="n">
-        <v>8286.673206033813</v>
+        <v>8495.084691689493</v>
       </c>
       <c r="G6" t="n">
-        <v>8286.673206033816</v>
+        <v>8495.084691689492</v>
       </c>
       <c r="H6" t="n">
-        <v>8286.673206033813</v>
+        <v>8495.08469168949</v>
       </c>
       <c r="I6" t="n">
-        <v>8286.673206033814</v>
+        <v>8495.084691689492</v>
       </c>
       <c r="J6" t="n">
-        <v>8286.673206033816</v>
+        <v>8495.08469168949</v>
       </c>
       <c r="K6" t="n">
-        <v>8286.673206033814</v>
+        <v>8495.084691689492</v>
       </c>
       <c r="L6" t="n">
-        <v>8286.673206033814</v>
+        <v>8495.084691689493</v>
       </c>
       <c r="M6" t="n">
-        <v>8286.673206033814</v>
+        <v>8495.084691689492</v>
       </c>
       <c r="N6" t="n">
-        <v>8286.673206033816</v>
+        <v>8495.084691689492</v>
       </c>
       <c r="O6" t="n">
-        <v>8286.673206033814</v>
+        <v>8495.08469168949</v>
       </c>
       <c r="P6" t="n">
-        <v>8286.673206033814</v>
+        <v>1930.520712388767</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>45.27845430264449</v>
+      </c>
+      <c r="C3" t="n">
         <v>48.20925546325286</v>
-      </c>
-      <c r="C3" t="n">
-        <v>51.97094800593192</v>
       </c>
       <c r="D3" t="n">
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="F3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="G3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="H3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="I3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="J3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="K3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="L3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="M3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="N3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="O3" t="n">
-        <v>53.02671201573919</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="P3" t="n">
-        <v>53.02671201573919</v>
+        <v>64.48974078097982</v>
       </c>
     </row>
     <row r="4">
@@ -26829,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.20925546325286</v>
+        <v>45.27845430264449</v>
       </c>
       <c r="C3" t="n">
+        <v>2.930801160608375</v>
+      </c>
+      <c r="D3" t="n">
         <v>3.761692542679064</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>1.055764009807262</v>
+        <v>3.231557442123183</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.287235332924716</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1938060521135792</v>
+        <v>0.1820239368950531</v>
       </c>
       <c r="H2" t="n">
-        <v>1.984816231208193</v>
+        <v>1.864152643726463</v>
       </c>
       <c r="I2" t="n">
-        <v>7.471707824108768</v>
+        <v>7.017477827146541</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44904641557491</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K2" t="n">
-        <v>24.65285660154272</v>
+        <v>23.15412736281413</v>
       </c>
       <c r="L2" t="n">
-        <v>30.58404856891367</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M2" t="n">
-        <v>34.03064694818854</v>
+        <v>31.96181060932351</v>
       </c>
       <c r="N2" t="n">
-        <v>34.58129839375625</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O2" t="n">
-        <v>32.65413946305184</v>
+        <v>30.6689855975264</v>
       </c>
       <c r="P2" t="n">
-        <v>27.86955255149785</v>
+        <v>26.17526965542977</v>
       </c>
       <c r="Q2" t="n">
-        <v>20.92887331018029</v>
+        <v>19.65653741537568</v>
       </c>
       <c r="R2" t="n">
-        <v>12.17416942107963</v>
+        <v>11.43406112598389</v>
       </c>
       <c r="S2" t="n">
-        <v>4.416355412538191</v>
+        <v>4.147870461996026</v>
       </c>
       <c r="T2" t="n">
-        <v>0.8483859931271933</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01550448416908633</v>
+        <v>0.01456191495160424</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.103695379675676</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H3" t="n">
-        <v>1.001479061604555</v>
+        <v>0.9405958148530489</v>
       </c>
       <c r="I3" t="n">
-        <v>3.570213730061651</v>
+        <v>3.353168549771314</v>
       </c>
       <c r="J3" t="n">
-        <v>9.796939357867265</v>
+        <v>9.201350793710048</v>
       </c>
       <c r="K3" t="n">
-        <v>16.74452979613755</v>
+        <v>15.7265740760421</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>21.14631962502279</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -31145,22 +31147,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>19.80126947508588</v>
+        <v>18.59748437196732</v>
       </c>
       <c r="Q3" t="n">
-        <v>13.23662425474067</v>
+        <v>12.43192579268081</v>
       </c>
       <c r="R3" t="n">
-        <v>6.438209625828375</v>
+        <v>6.046809425549393</v>
       </c>
       <c r="S3" t="n">
-        <v>1.926096197045998</v>
+        <v>1.809002395959427</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4179651487804657</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U3" t="n">
-        <v>0.006822064452347106</v>
+        <v>0.006407328439053468</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08693472296652154</v>
+        <v>0.08164967169329333</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7729287187387103</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I4" t="n">
-        <v>2.614364214302303</v>
+        <v>2.455428308740131</v>
       </c>
       <c r="J4" t="n">
-        <v>6.146284913733073</v>
+        <v>5.772631788715838</v>
       </c>
       <c r="K4" t="n">
-        <v>10.10023417738314</v>
+        <v>9.486207311275351</v>
       </c>
       <c r="L4" t="n">
-        <v>12.92482235813176</v>
+        <v>12.13907937156472</v>
       </c>
       <c r="M4" t="n">
-        <v>13.62741298283392</v>
+        <v>12.79895717279506</v>
       </c>
       <c r="N4" t="n">
-        <v>13.3033835608678</v>
+        <v>12.49462657830189</v>
       </c>
       <c r="O4" t="n">
-        <v>12.28782793348616</v>
+        <v>11.54080995897568</v>
       </c>
       <c r="P4" t="n">
-        <v>10.51435958496911</v>
+        <v>9.875156656432491</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.279597574951182</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R4" t="n">
-        <v>3.908901270840141</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S4" t="n">
-        <v>1.51503512660747</v>
+        <v>1.422931096691302</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3714483617660465</v>
+        <v>0.3488667790531623</v>
       </c>
       <c r="U4" t="n">
-        <v>0.00474189397999209</v>
+        <v>0.004453618455997823</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.208928434194701</v>
+        <v>0.1938060521135792</v>
       </c>
       <c r="H5" t="n">
-        <v>2.139688326696483</v>
+        <v>1.984816231208193</v>
       </c>
       <c r="I5" t="n">
-        <v>8.05471345929122</v>
+        <v>7.471707824108768</v>
       </c>
       <c r="J5" t="n">
-        <v>17.73253969173252</v>
+        <v>16.44904641557491</v>
       </c>
       <c r="K5" t="n">
-        <v>26.57648031119422</v>
+        <v>24.65285660154272</v>
       </c>
       <c r="L5" t="n">
-        <v>32.97047387918031</v>
+        <v>30.58404856891367</v>
       </c>
       <c r="M5" t="n">
-        <v>36.68600492079032</v>
+        <v>34.03064694818854</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>34.58129839375625</v>
       </c>
       <c r="O5" t="n">
-        <v>35.20209071692246</v>
+        <v>32.65413946305184</v>
       </c>
       <c r="P5" t="n">
-        <v>30.04416999774078</v>
+        <v>27.86955255149785</v>
       </c>
       <c r="Q5" t="n">
-        <v>22.56192044814304</v>
+        <v>20.92887331018029</v>
       </c>
       <c r="R5" t="n">
-        <v>13.1241007544829</v>
+        <v>12.17416942107963</v>
       </c>
       <c r="S5" t="n">
-        <v>4.760956694211755</v>
+        <v>4.416355412538191</v>
       </c>
       <c r="T5" t="n">
-        <v>0.9145842206873043</v>
+        <v>0.8483859931271933</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01671427473557608</v>
+        <v>0.01550448416908633</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1117865674089857</v>
+        <v>0.103695379675676</v>
       </c>
       <c r="H6" t="n">
-        <v>1.079622901028888</v>
+        <v>1.001479061604555</v>
       </c>
       <c r="I6" t="n">
-        <v>3.848791904212884</v>
+        <v>3.570213730061651</v>
       </c>
       <c r="J6" t="n">
-        <v>10.56137916033754</v>
+        <v>9.796939357867265</v>
       </c>
       <c r="K6" t="n">
-        <v>18.05107917673958</v>
+        <v>16.74452979613755</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -31382,22 +31384,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.34633145549306</v>
+        <v>19.80126947508588</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.26945727136455</v>
+        <v>13.23662425474067</v>
       </c>
       <c r="R6" t="n">
-        <v>6.940573018603515</v>
+        <v>6.438209625828375</v>
       </c>
       <c r="S6" t="n">
-        <v>2.076386460425675</v>
+        <v>1.926096197045998</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4505783133721832</v>
+        <v>0.4179651487804657</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007354379434801691</v>
+        <v>0.006822064452347106</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09371810296151657</v>
+        <v>0.08693472296652154</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8332391336033025</v>
+        <v>0.7729287187387103</v>
       </c>
       <c r="I7" t="n">
-        <v>2.818358950879063</v>
+        <v>2.614364214302303</v>
       </c>
       <c r="J7" t="n">
-        <v>6.625869879379222</v>
+        <v>6.146284913733073</v>
       </c>
       <c r="K7" t="n">
-        <v>10.88833959861983</v>
+        <v>10.10023417738314</v>
       </c>
       <c r="L7" t="n">
-        <v>13.93332596211493</v>
+        <v>12.92482235813176</v>
       </c>
       <c r="M7" t="n">
-        <v>14.69073863059482</v>
+        <v>13.62741298283392</v>
       </c>
       <c r="N7" t="n">
-        <v>14.34142570137463</v>
+        <v>13.3033835608678</v>
       </c>
       <c r="O7" t="n">
-        <v>13.24662786223328</v>
+        <v>12.28782793348616</v>
       </c>
       <c r="P7" t="n">
-        <v>11.33477856181833</v>
+        <v>10.51435958496911</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.847613148895721</v>
+        <v>7.279597574951182</v>
       </c>
       <c r="R7" t="n">
-        <v>4.213906702251462</v>
+        <v>3.908901270840141</v>
       </c>
       <c r="S7" t="n">
-        <v>1.633250939792975</v>
+        <v>1.51503512660747</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4004318944719343</v>
+        <v>0.3714483617660465</v>
       </c>
       <c r="U7" t="n">
-        <v>0.005111896525173638</v>
+        <v>0.00474189397999209</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H11" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I11" t="n">
-        <v>8.218340964770999</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J11" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K11" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L11" t="n">
-        <v>33.64025268914076</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
@@ -31774,25 +31776,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q11" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R11" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S11" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H12" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I12" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J12" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K12" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -31859,19 +31861,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R12" t="n">
-        <v>7.081567314101927</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S12" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.007503780002227248</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8501659729736551</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I13" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J13" t="n">
-        <v>6.760471136826289</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K13" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L13" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M13" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N13" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O13" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P13" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R13" t="n">
-        <v>4.299510125079442</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S13" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T13" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U13" t="n">
-        <v>0.005215742165482549</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,22 +31989,22 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H14" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I14" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J14" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K14" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L14" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -32011,25 +32013,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q14" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R14" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S14" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H15" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I15" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J15" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K15" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -32096,19 +32098,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R15" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S15" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U15" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H16" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I16" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J16" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K16" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L16" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M16" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N16" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O16" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P16" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R16" t="n">
-        <v>4.299510125079442</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S16" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T16" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U16" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32226,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H17" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I17" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J17" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K17" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L17" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M17" t="n">
         <v>37.43126289943181</v>
@@ -32248,25 +32250,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R17" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S17" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H18" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I18" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J18" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K18" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -32333,19 +32335,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R18" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S18" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H19" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I19" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J19" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K19" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L19" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M19" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N19" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O19" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P19" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R19" t="n">
-        <v>4.299510125079442</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S19" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U19" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H20" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I20" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J20" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K20" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L20" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M20" t="n">
         <v>37.43126289943181</v>
@@ -32485,25 +32487,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R20" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S20" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758237</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H21" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I21" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J21" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K21" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
@@ -32570,19 +32572,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R21" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S21" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H22" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I22" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J22" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K22" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L22" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M22" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N22" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O22" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P22" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q22" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R22" t="n">
-        <v>4.299510125079442</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S22" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U22" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H23" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I23" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J23" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K23" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L23" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
@@ -32722,25 +32724,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q23" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R23" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S23" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H24" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I24" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J24" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K24" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -32807,19 +32809,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R24" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S24" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U24" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H25" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I25" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J25" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K25" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L25" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M25" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N25" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O25" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P25" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R25" t="n">
-        <v>4.299510125079442</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S25" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U25" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,22 +32937,22 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H26" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I26" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J26" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K26" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L26" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M26" t="n">
         <v>37.43126289943181</v>
@@ -32959,25 +32961,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q26" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R26" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S26" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T26" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H27" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I27" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J27" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K27" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
@@ -33044,19 +33046,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R27" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S27" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U27" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H28" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I28" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J28" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K28" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L28" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M28" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N28" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O28" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P28" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R28" t="n">
-        <v>4.299510125079442</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S28" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T28" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U28" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,22 +33174,22 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H29" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I29" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J29" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K29" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L29" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
@@ -33196,25 +33198,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O29" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P29" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R29" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S29" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T29" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H30" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I30" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J30" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K30" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
@@ -33281,19 +33283,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R30" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S30" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H31" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I31" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J31" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K31" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L31" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M31" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N31" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O31" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P31" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R31" t="n">
-        <v>4.299510125079442</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S31" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U31" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,22 +33411,22 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H32" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I32" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J32" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K32" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L32" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M32" t="n">
         <v>37.43126289943181</v>
@@ -33433,25 +33435,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q32" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R32" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S32" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T32" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H33" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I33" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J33" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K33" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
@@ -33518,19 +33520,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R33" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S33" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U33" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H34" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I34" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J34" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K34" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L34" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M34" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N34" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O34" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P34" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R34" t="n">
-        <v>4.299510125079442</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S34" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U34" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,22 +33648,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H35" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I35" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J35" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K35" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L35" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M35" t="n">
         <v>37.43126289943181</v>
@@ -33670,25 +33672,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R35" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S35" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T35" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H36" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I36" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J36" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K36" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -33755,19 +33757,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R36" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S36" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H37" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I37" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J37" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K37" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L37" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M37" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N37" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O37" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P37" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q37" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R37" t="n">
-        <v>4.299510125079442</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S37" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U37" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H38" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I38" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J38" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K38" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L38" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -33907,25 +33909,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q38" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R38" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S38" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T38" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H39" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I39" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J39" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K39" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
@@ -33992,19 +33994,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R39" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S39" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U39" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H40" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I40" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J40" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K40" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L40" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M40" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N40" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O40" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P40" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R40" t="n">
-        <v>4.299510125079442</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S40" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U40" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,22 +34122,22 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H41" t="n">
-        <v>2.183155032889201</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I41" t="n">
-        <v>8.218340964770997</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J41" t="n">
-        <v>18.09276743294812</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K41" t="n">
-        <v>27.11636831586767</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L41" t="n">
-        <v>33.64025268914075</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
@@ -34144,25 +34146,25 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>35.91720371514322</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>30.65450239699825</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q41" t="n">
-        <v>23.02025466206896</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R41" t="n">
-        <v>13.39071034636654</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S41" t="n">
-        <v>4.857673166064953</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T41" t="n">
-        <v>0.9331635451211989</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H42" t="n">
-        <v>1.101554904326959</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I42" t="n">
-        <v>3.926978201165591</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J42" t="n">
-        <v>10.77592833519847</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K42" t="n">
-        <v>18.4177778894667</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -34229,19 +34231,19 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>14.55933421232145</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R42" t="n">
-        <v>7.081567314101926</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S42" t="n">
-        <v>2.118567220628824</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U42" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H43" t="n">
-        <v>0.850165972973655</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I43" t="n">
-        <v>2.875612513902709</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J43" t="n">
-        <v>6.760471136826288</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K43" t="n">
-        <v>11.10953081247781</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L43" t="n">
-        <v>14.21637456238359</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M43" t="n">
-        <v>14.98917369323591</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N43" t="n">
-        <v>14.63276464526128</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O43" t="n">
-        <v>13.5157265314871</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P43" t="n">
-        <v>11.56503896159662</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.007033514376618</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R43" t="n">
-        <v>4.299510125079442</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S43" t="n">
-        <v>1.666429621871672</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U43" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2131727116210619</v>
+        <v>0.2592552393205217</v>
       </c>
       <c r="H44" t="n">
-        <v>2.183155032889201</v>
+        <v>2.655097719691293</v>
       </c>
       <c r="I44" t="n">
-        <v>8.218340964770997</v>
+        <v>9.994937613904421</v>
       </c>
       <c r="J44" t="n">
-        <v>18.09276743294812</v>
+        <v>22.00396436828015</v>
       </c>
       <c r="K44" t="n">
-        <v>27.11636831586767</v>
+        <v>32.97823864871783</v>
       </c>
       <c r="L44" t="n">
-        <v>33.64025268914075</v>
+        <v>40.91242117907326</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>43.72189474747329</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>43.5702546824875</v>
       </c>
       <c r="O44" t="n">
-        <v>35.91720371514322</v>
+        <v>43.68159120406558</v>
       </c>
       <c r="P44" t="n">
-        <v>30.65450239699825</v>
+        <v>37.2812274833402</v>
       </c>
       <c r="Q44" t="n">
-        <v>23.02025466206896</v>
+        <v>27.996649225174</v>
       </c>
       <c r="R44" t="n">
-        <v>13.39071034636654</v>
+        <v>16.28544192696774</v>
       </c>
       <c r="S44" t="n">
-        <v>4.857673166064953</v>
+        <v>5.907778766016394</v>
       </c>
       <c r="T44" t="n">
-        <v>0.9331635451211989</v>
+        <v>1.134889810125584</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01705381692968495</v>
+        <v>0.02074041914564173</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1140574560338541</v>
+        <v>0.1387137820572019</v>
       </c>
       <c r="H45" t="n">
-        <v>1.101554904326959</v>
+        <v>1.339683105657713</v>
       </c>
       <c r="I45" t="n">
-        <v>3.926978201165591</v>
+        <v>4.775891180478223</v>
       </c>
       <c r="J45" t="n">
-        <v>10.77592833519847</v>
+        <v>13.10541043550081</v>
       </c>
       <c r="K45" t="n">
-        <v>18.4177778894667</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>28.80571856227104</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>24.41583818672687</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>27.63366006158314</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>29.4625215702637</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>26.48824843511603</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.55933421232145</v>
+        <v>17.70669260084563</v>
       </c>
       <c r="R45" t="n">
-        <v>7.081567314101926</v>
+        <v>8.612422363165573</v>
       </c>
       <c r="S45" t="n">
-        <v>2.118567220628824</v>
+        <v>2.576547662334428</v>
       </c>
       <c r="T45" t="n">
-        <v>0.4597315881364556</v>
+        <v>0.5591138846954757</v>
       </c>
       <c r="U45" t="n">
-        <v>0.007503780002227247</v>
+        <v>0.009125906714289601</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.09562193970051328</v>
+        <v>0.1162929751788161</v>
       </c>
       <c r="H46" t="n">
-        <v>0.850165972973655</v>
+        <v>1.033950270226202</v>
       </c>
       <c r="I46" t="n">
-        <v>2.875612513902709</v>
+        <v>3.497246926286578</v>
       </c>
       <c r="J46" t="n">
-        <v>6.760471136826288</v>
+        <v>8.221913345142294</v>
       </c>
       <c r="K46" t="n">
-        <v>11.10953081247781</v>
+        <v>13.5111292980479</v>
       </c>
       <c r="L46" t="n">
-        <v>14.21637456238359</v>
+        <v>17.28959378249416</v>
       </c>
       <c r="M46" t="n">
-        <v>14.98917369323591</v>
+        <v>18.22945246371204</v>
       </c>
       <c r="N46" t="n">
-        <v>14.63276464526128</v>
+        <v>17.79599682895465</v>
       </c>
       <c r="O46" t="n">
-        <v>13.5157265314871</v>
+        <v>16.43748343709303</v>
       </c>
       <c r="P46" t="n">
-        <v>11.56503896159662</v>
+        <v>14.06510674344517</v>
       </c>
       <c r="Q46" t="n">
-        <v>8.007033514376618</v>
+        <v>9.737950857927952</v>
       </c>
       <c r="R46" t="n">
-        <v>4.299510125079442</v>
+        <v>5.228955047585673</v>
       </c>
       <c r="S46" t="n">
-        <v>1.666429621871672</v>
+        <v>2.026669394707184</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4085664696294657</v>
+        <v>0.496888166673123</v>
       </c>
       <c r="U46" t="n">
-        <v>0.005215742165482548</v>
+        <v>0.006343253191571792</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.600378746450332</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1.319057674398896</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>6.290631848041478</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>4.717407230287371</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70226.65431298158</v>
+        <v>-81829.43860796456</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20639065.39645837</v>
+        <v>20649197.61767701</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533237.3100841903</v>
+        <v>530817.7028800689</v>
       </c>
     </row>
     <row r="11">
@@ -4000,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.786362146091506</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4018,10 +4018,10 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0.2941343268911041</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>5.383215863126759</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4100,13 +4100,13 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.040345688132867</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0.5004428436220648</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.317757766117567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>3.077625506829147</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>9.30535103639021</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>15.53307656595127</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>21.76080209551234</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>21.46369671481425</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>15.10952313093397</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>15.10952313093397</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>15.10952313093397</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>15.10952313093397</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.671931349997848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>13.21159771560388</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>13.21159771560388</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>13.21159771560388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>13.21159771560388</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>6.8574241317236</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>6.8574241317236</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>6.8574241317236</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>6.8574241317236</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.5032505478433185</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>6.730976077404382</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>8.036843175059289</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>14.26456870462035</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>20.49229423418141</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>25.16252739216591</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.07126912132463</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>20.07126912132463</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>13.71709553744435</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>13.71709553744435</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>13.71709553744435</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>13.71709553744435</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>13.21159771560388</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>13.21159771560388</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>13.21159771560388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.5032505478433182</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22561,49 +22561,49 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.1136478495508</v>
+        <v>400.1018657343323</v>
       </c>
       <c r="H2" t="n">
-        <v>293.0255420969791</v>
+        <v>292.9048785094973</v>
       </c>
       <c r="I2" t="n">
-        <v>27.53042471681696</v>
+        <v>27.07619471985473</v>
       </c>
       <c r="J2" t="n">
-        <v>13.97090537154</v>
+        <v>12.97091307001162</v>
       </c>
       <c r="K2" t="n">
-        <v>12.61047343199521</v>
+        <v>11.11174419326662</v>
       </c>
       <c r="L2" t="n">
-        <v>9.587300011056811</v>
+        <v>7.727993863709251</v>
       </c>
       <c r="M2" t="n">
-        <v>5.4694522901083</v>
+        <v>3.400615951243282</v>
       </c>
       <c r="N2" t="n">
-        <v>4.80063671441944</v>
+        <v>2.698324440689774</v>
       </c>
       <c r="O2" t="n">
-        <v>6.7219737584977</v>
+        <v>4.736819892972257</v>
       </c>
       <c r="P2" t="n">
-        <v>11.40009215480153</v>
+        <v>9.705809258733449</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.46813718922236</v>
+        <v>15.19580129441775</v>
       </c>
       <c r="R2" t="n">
-        <v>23.59858876881258</v>
+        <v>22.85848047371684</v>
       </c>
       <c r="S2" t="n">
-        <v>99.17575072359497</v>
+        <v>98.9072657730528</v>
       </c>
       <c r="T2" t="n">
-        <v>217.9195054620551</v>
+        <v>217.867929252686</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7567983946002</v>
+        <v>255.7558558253827</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -22640,22 +22640,22 @@
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>93.01584267229842</v>
+        <v>93.00953868489636</v>
       </c>
       <c r="H3" t="n">
-        <v>51.90173649046046</v>
+        <v>51.84085324370895</v>
       </c>
       <c r="I3" t="n">
-        <v>12.81921820022869</v>
+        <v>12.60217301993835</v>
       </c>
       <c r="J3" t="n">
-        <v>11.40976353962329</v>
+        <v>10.81417497546607</v>
       </c>
       <c r="K3" t="n">
-        <v>6.672659757291241</v>
+        <v>5.654704037195785</v>
       </c>
       <c r="L3" t="n">
-        <v>1.368767089206766</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -22667,22 +22667,22 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.173356832861341</v>
+        <v>1.969571729742785</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.31511249629769</v>
+        <v>9.510414034237824</v>
       </c>
       <c r="R3" t="n">
-        <v>17.62610996859475</v>
+        <v>17.23470976831577</v>
       </c>
       <c r="S3" t="n">
-        <v>78.7020025683986</v>
+        <v>78.58490876731203</v>
       </c>
       <c r="T3" t="n">
-        <v>140.0685806895991</v>
+        <v>140.043171196518</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9141067911206</v>
+        <v>182.9136920551073</v>
       </c>
       <c r="V3" t="n">
         <v>202.9234074721264</v>
@@ -22719,49 +22719,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5127503370169</v>
+        <v>164.5074652857436</v>
       </c>
       <c r="H4" t="n">
-        <v>141.6323659985995</v>
+        <v>141.5853770881884</v>
       </c>
       <c r="I4" t="n">
-        <v>96.31545426838666</v>
+        <v>96.15651836282449</v>
       </c>
       <c r="J4" t="n">
-        <v>14.86412419518603</v>
+        <v>14.49047107016879</v>
       </c>
       <c r="K4" t="n">
-        <v>11.47844714143665</v>
+        <v>10.86442027532886</v>
       </c>
       <c r="L4" t="n">
-        <v>9.779680524136499</v>
+        <v>8.993937537569462</v>
       </c>
       <c r="M4" t="n">
-        <v>9.776482718690756</v>
+        <v>8.948026908651903</v>
       </c>
       <c r="N4" t="n">
-        <v>8.254274397298504</v>
+        <v>7.445517414732592</v>
       </c>
       <c r="O4" t="n">
-        <v>10.95837753944877</v>
+        <v>10.21135956493829</v>
       </c>
       <c r="P4" t="n">
-        <v>12.50564400155399</v>
+        <v>11.86644107301737</v>
       </c>
       <c r="Q4" t="n">
-        <v>17.78251616508563</v>
+        <v>17.33996518983377</v>
       </c>
       <c r="R4" t="n">
-        <v>42.89696103247105</v>
+        <v>42.65932590885844</v>
       </c>
       <c r="S4" t="n">
-        <v>167.0107659093652</v>
+        <v>166.918661879449</v>
       </c>
       <c r="T4" t="n">
-        <v>240.5570875173058</v>
+        <v>240.5345059345929</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3781503962427</v>
+        <v>277.3778621207188</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -23299,7 +23299,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5.66304307028302</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q11" t="n">
         <v>12.15985225202051</v>
@@ -23381,7 +23381,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>7.590305095014385</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R12" t="n">
         <v>16.30078102506237</v>
@@ -23442,19 +23442,19 @@
         <v>13.59888901882769</v>
       </c>
       <c r="K13" t="n">
-        <v>9.399277081791602</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L13" t="n">
         <v>7.119058680988218</v>
       </c>
       <c r="M13" t="n">
-        <v>6.971230031800342</v>
+        <v>6.971230031800344</v>
       </c>
       <c r="N13" t="n">
         <v>5.515724349254292</v>
       </c>
       <c r="O13" t="n">
-        <v>8.428883322910336</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P13" t="n">
         <v>10.34122471567624</v>
@@ -23536,7 +23536,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>5.66304307028302</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q14" t="n">
         <v>12.15985225202051</v>
@@ -23618,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>7.590305095014385</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R15" t="n">
         <v>16.30078102506237</v>
@@ -23679,19 +23679,19 @@
         <v>13.59888901882769</v>
       </c>
       <c r="K16" t="n">
-        <v>9.399277081791602</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L16" t="n">
         <v>7.119058680988218</v>
       </c>
       <c r="M16" t="n">
-        <v>6.971230031800342</v>
+        <v>6.971230031800344</v>
       </c>
       <c r="N16" t="n">
         <v>5.515724349254292</v>
       </c>
       <c r="O16" t="n">
-        <v>8.428883322910336</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P16" t="n">
         <v>10.34122471567624</v>
@@ -23773,7 +23773,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>5.66304307028302</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q17" t="n">
         <v>12.15985225202051</v>
@@ -23855,7 +23855,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>7.590305095014385</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R18" t="n">
         <v>16.30078102506237</v>
@@ -23916,19 +23916,19 @@
         <v>13.59888901882769</v>
       </c>
       <c r="K19" t="n">
-        <v>9.399277081791602</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L19" t="n">
         <v>7.119058680988218</v>
       </c>
       <c r="M19" t="n">
-        <v>6.971230031800342</v>
+        <v>6.971230031800344</v>
       </c>
       <c r="N19" t="n">
         <v>5.515724349254292</v>
       </c>
       <c r="O19" t="n">
-        <v>8.428883322910336</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P19" t="n">
         <v>10.34122471567624</v>
@@ -23995,7 +23995,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K20" t="n">
-        <v>7.5355929460132</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L20" t="n">
         <v>3.291462016566818</v>
@@ -24071,10 +24071,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J21" t="n">
-        <v>9.393027825252627</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K21" t="n">
-        <v>3.225737200493288</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24150,19 +24150,19 @@
         <v>95.77727785545193</v>
       </c>
       <c r="J22" t="n">
-        <v>13.59888901882769</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K22" t="n">
         <v>9.399277081791604</v>
       </c>
       <c r="L22" t="n">
-        <v>7.119058680988218</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M22" t="n">
-        <v>6.971230031800344</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N22" t="n">
-        <v>5.515724349254292</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O22" t="n">
         <v>8.428883322910337</v>
@@ -24232,7 +24232,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K23" t="n">
-        <v>7.5355929460132</v>
+        <v>7.535592946013203</v>
       </c>
       <c r="L23" t="n">
         <v>3.291462016566818</v>
@@ -24247,7 +24247,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>5.66304307028302</v>
+        <v>5.663043070283024</v>
       </c>
       <c r="Q23" t="n">
         <v>12.15985225202051</v>
@@ -24308,10 +24308,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J24" t="n">
-        <v>9.393027825252627</v>
+        <v>9.393027825252629</v>
       </c>
       <c r="K24" t="n">
-        <v>3.225737200493288</v>
+        <v>3.225737200493292</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>7.590305095014385</v>
+        <v>7.590305095014386</v>
       </c>
       <c r="R24" t="n">
         <v>16.30078102506237</v>
@@ -24387,22 +24387,22 @@
         <v>95.77727785545193</v>
       </c>
       <c r="J25" t="n">
-        <v>13.59888901882769</v>
+        <v>13.5988890188277</v>
       </c>
       <c r="K25" t="n">
-        <v>9.399277081791602</v>
+        <v>9.399277081791604</v>
       </c>
       <c r="L25" t="n">
-        <v>7.119058680988218</v>
+        <v>7.119058680988219</v>
       </c>
       <c r="M25" t="n">
-        <v>6.971230031800342</v>
+        <v>6.971230031800346</v>
       </c>
       <c r="N25" t="n">
-        <v>5.515724349254292</v>
+        <v>5.515724349254294</v>
       </c>
       <c r="O25" t="n">
-        <v>8.428883322910336</v>
+        <v>8.428883322910337</v>
       </c>
       <c r="P25" t="n">
         <v>10.34122471567624</v>
@@ -24706,7 +24706,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K29" t="n">
-        <v>7.535592946013203</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L29" t="n">
         <v>3.291462016566818</v>
@@ -24721,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>5.663043070283024</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q29" t="n">
         <v>12.15985225202051</v>
@@ -24782,10 +24782,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J30" t="n">
-        <v>9.393027825252629</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K30" t="n">
-        <v>3.225737200493292</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>7.590305095014386</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R30" t="n">
         <v>16.30078102506237</v>
@@ -24861,22 +24861,22 @@
         <v>95.77727785545193</v>
       </c>
       <c r="J31" t="n">
-        <v>13.5988890188277</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K31" t="n">
-        <v>9.399277081791604</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L31" t="n">
-        <v>7.119058680988219</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M31" t="n">
-        <v>6.971230031800346</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N31" t="n">
-        <v>5.515724349254294</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O31" t="n">
-        <v>8.428883322910337</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P31" t="n">
         <v>10.34122471567624</v>
@@ -24943,7 +24943,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K32" t="n">
-        <v>7.535592946013203</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L32" t="n">
         <v>3.291462016566818</v>
@@ -24958,7 +24958,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>5.663043070283024</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q32" t="n">
         <v>12.15985225202051</v>
@@ -25019,10 +25019,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J33" t="n">
-        <v>9.393027825252629</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K33" t="n">
-        <v>3.225737200493292</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25040,7 +25040,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>7.590305095014386</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R33" t="n">
         <v>16.30078102506237</v>
@@ -25098,22 +25098,22 @@
         <v>95.77727785545193</v>
       </c>
       <c r="J34" t="n">
-        <v>13.5988890188277</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K34" t="n">
-        <v>9.399277081791604</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L34" t="n">
-        <v>7.119058680988219</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M34" t="n">
-        <v>6.971230031800346</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N34" t="n">
-        <v>5.515724349254294</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O34" t="n">
-        <v>8.428883322910337</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P34" t="n">
         <v>10.34122471567624</v>
@@ -25180,7 +25180,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K35" t="n">
-        <v>7.535592946013203</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L35" t="n">
         <v>3.291462016566818</v>
@@ -25256,10 +25256,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J36" t="n">
-        <v>9.393027825252629</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K36" t="n">
-        <v>3.225737200493292</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25335,19 +25335,19 @@
         <v>95.77727785545193</v>
       </c>
       <c r="J37" t="n">
-        <v>13.5988890188277</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K37" t="n">
         <v>9.399277081791604</v>
       </c>
       <c r="L37" t="n">
-        <v>7.119058680988219</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M37" t="n">
-        <v>6.971230031800346</v>
+        <v>6.971230031800344</v>
       </c>
       <c r="N37" t="n">
-        <v>5.515724349254294</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O37" t="n">
         <v>8.428883322910337</v>
@@ -25417,7 +25417,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K38" t="n">
-        <v>7.535592946013203</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L38" t="n">
         <v>3.291462016566818</v>
@@ -25432,7 +25432,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>5.663043070283024</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q38" t="n">
         <v>12.15985225202051</v>
@@ -25493,10 +25493,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J39" t="n">
-        <v>9.393027825252629</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K39" t="n">
-        <v>3.225737200493292</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>7.590305095014386</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R39" t="n">
         <v>16.30078102506237</v>
@@ -25572,22 +25572,22 @@
         <v>95.77727785545193</v>
       </c>
       <c r="J40" t="n">
-        <v>13.5988890188277</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K40" t="n">
-        <v>9.399277081791604</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L40" t="n">
-        <v>7.119058680988219</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M40" t="n">
-        <v>6.971230031800346</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N40" t="n">
-        <v>5.515724349254294</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O40" t="n">
-        <v>8.428883322910337</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P40" t="n">
         <v>10.34122471567624</v>
@@ -25654,7 +25654,7 @@
         <v>10.58480914680515</v>
       </c>
       <c r="K41" t="n">
-        <v>7.535592946013203</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L41" t="n">
         <v>3.291462016566818</v>
@@ -25669,7 +25669,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>5.663043070283024</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q41" t="n">
         <v>12.15985225202051</v>
@@ -25730,10 +25730,10 @@
         <v>12.08427667672422</v>
       </c>
       <c r="J42" t="n">
-        <v>9.393027825252629</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K42" t="n">
-        <v>3.225737200493292</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>7.590305095014386</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R42" t="n">
         <v>16.30078102506237</v>
@@ -25809,22 +25809,22 @@
         <v>95.77727785545193</v>
       </c>
       <c r="J43" t="n">
-        <v>13.5988890188277</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K43" t="n">
-        <v>9.399277081791604</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L43" t="n">
-        <v>7.119058680988219</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M43" t="n">
-        <v>6.971230031800346</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N43" t="n">
-        <v>5.515724349254294</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O43" t="n">
-        <v>8.428883322910337</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P43" t="n">
         <v>10.34122471567624</v>
@@ -25879,22 +25879,22 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.0364165471253</v>
+        <v>400.0737521665542</v>
       </c>
       <c r="H44" t="n">
-        <v>292.2345970210142</v>
+        <v>292.6169604334899</v>
       </c>
       <c r="I44" t="n">
-        <v>24.55296493005908</v>
+        <v>25.99234639808955</v>
       </c>
       <c r="J44" t="n">
-        <v>1.125363269264898</v>
+        <v>10.58480914680515</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>7.5355929460132</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3.291462016566818</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25906,22 +25906,22 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>5.66304307028302</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.83739353138256</v>
+        <v>12.15985225202051</v>
       </c>
       <c r="R44" t="n">
-        <v>18.74720796782874</v>
+        <v>21.0924915717758</v>
       </c>
       <c r="S44" t="n">
-        <v>97.4158424195746</v>
+        <v>98.26662784730937</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5814254356876</v>
+        <v>217.7448621097373</v>
       </c>
       <c r="U44" t="n">
-        <v>250.3674040272794</v>
+        <v>255.7536067399605</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25955,22 +25955,22 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>86.41874016588341</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>92.97452028251483</v>
+        <v>92.99449660002338</v>
       </c>
       <c r="H45" t="n">
-        <v>51.50264919965579</v>
+        <v>51.69557837138315</v>
       </c>
       <c r="I45" t="n">
-        <v>11.39649556952178</v>
+        <v>12.08427667672422</v>
       </c>
       <c r="J45" t="n">
-        <v>1.215072049791043</v>
+        <v>9.393027825252627</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.225737200493288</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25988,25 +25988,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>7.590305095014385</v>
       </c>
       <c r="R45" t="n">
-        <v>15.06049703097857</v>
+        <v>16.30078102506237</v>
       </c>
       <c r="S45" t="n">
-        <v>71.64382545398212</v>
+        <v>78.30550863820224</v>
       </c>
       <c r="T45" t="n">
-        <v>139.902022460603</v>
+        <v>139.9825410386309</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9113882128454</v>
+        <v>182.9127024442604</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>194.0557205514929</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
         <v>161.8425727710037</v>
@@ -26037,49 +26037,49 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4781070335314</v>
+        <v>164.4948545070826</v>
       </c>
       <c r="H46" t="n">
-        <v>141.3243555367009</v>
+        <v>141.4732558015469</v>
       </c>
       <c r="I46" t="n">
-        <v>95.27363565084021</v>
+        <v>95.77727785545193</v>
       </c>
       <c r="J46" t="n">
-        <v>12.41484263875957</v>
+        <v>13.59888901882769</v>
       </c>
       <c r="K46" t="n">
-        <v>7.453525154664099</v>
+        <v>9.399277081791602</v>
       </c>
       <c r="L46" t="n">
-        <v>4.629166113207059</v>
+        <v>7.119058680988218</v>
       </c>
       <c r="M46" t="n">
-        <v>4.345987427773775</v>
+        <v>6.971230031800342</v>
       </c>
       <c r="N46" t="n">
-        <v>2.952904146645739</v>
+        <v>5.515724349254292</v>
       </c>
       <c r="O46" t="n">
-        <v>6.061704061331426</v>
+        <v>8.428883322910336</v>
       </c>
       <c r="P46" t="n">
-        <v>8.315693914541319</v>
+        <v>10.34122471567624</v>
       </c>
       <c r="Q46" t="n">
-        <v>14.881611906857</v>
+        <v>16.28398444212863</v>
       </c>
       <c r="R46" t="n">
-        <v>41.33927213211291</v>
+        <v>42.09229944287759</v>
       </c>
       <c r="S46" t="n">
-        <v>166.4070276113493</v>
+        <v>166.6988904004184</v>
       </c>
       <c r="T46" t="n">
-        <v>240.4090661296859</v>
+        <v>240.4806235166773</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3762607615072</v>
+        <v>277.3771742600645</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>39771.2767719711</v>
+        <v>42076.54640926953</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46876.08000054261</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46876.08000054261</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46876.08000054261</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>46876.08000054261</v>
+        <v>46876.08000054258</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>46876.08000054258</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>46876.08000054258</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46876.08000054258</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>46876.08000054258</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55058.03794465346</v>
+        <v>46876.08000054261</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8228.540021787127</v>
+        <v>8705.492360538521</v>
       </c>
       <c r="C2" t="n">
         <v>8705.492360538521</v>
@@ -26322,40 +26322,40 @@
         <v>9295.315482426624</v>
       </c>
       <c r="E2" t="n">
-        <v>9698.499310457095</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="F2" t="n">
-        <v>9698.499310457095</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="G2" t="n">
-        <v>9698.499310457093</v>
+        <v>9698.499310457091</v>
       </c>
       <c r="H2" t="n">
         <v>9698.499310457091</v>
       </c>
       <c r="I2" t="n">
-        <v>9698.499310457093</v>
+        <v>9698.499310457095</v>
       </c>
       <c r="J2" t="n">
         <v>9698.499310457091</v>
       </c>
       <c r="K2" t="n">
+        <v>9698.499310457091</v>
+      </c>
+      <c r="L2" t="n">
         <v>9698.499310457093</v>
       </c>
-      <c r="L2" t="n">
-        <v>9698.499310457095</v>
-      </c>
       <c r="M2" t="n">
-        <v>9698.499310457093</v>
+        <v>9698.499310457091</v>
       </c>
       <c r="N2" t="n">
         <v>9698.499310457093</v>
       </c>
       <c r="O2" t="n">
-        <v>9698.499310457091</v>
+        <v>9698.499310457093</v>
       </c>
       <c r="P2" t="n">
-        <v>11391.31819544554</v>
+        <v>9698.499310457093</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43630.90718593419</v>
+        <v>46455.06528471148</v>
       </c>
       <c r="C3" t="n">
-        <v>2668.793398452307</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>3221.566157245948</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>7668.302756395657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.147961274838988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34614.67030379765</v>
+        <v>34678.56176909891</v>
       </c>
       <c r="C5" t="n">
         <v>34678.56176909891</v>
@@ -26511,7 +26511,7 @@
         <v>1203.414618767601</v>
       </c>
       <c r="P5" t="n">
-        <v>1788.346765386282</v>
+        <v>1203.414618767601</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70017.03746794471</v>
+        <v>-73811.69559362862</v>
       </c>
       <c r="C6" t="n">
-        <v>-28641.86280701269</v>
+        <v>-27356.63030891715</v>
       </c>
       <c r="D6" t="n">
-        <v>-28686.81734134864</v>
+        <v>-30065.463049023</v>
       </c>
       <c r="E6" t="n">
-        <v>5898.841748015402</v>
+        <v>4523.555905574635</v>
       </c>
       <c r="F6" t="n">
-        <v>8495.084691689493</v>
+        <v>7119.798849248727</v>
       </c>
       <c r="G6" t="n">
-        <v>8495.084691689492</v>
+        <v>7119.798849248725</v>
       </c>
       <c r="H6" t="n">
-        <v>8495.08469168949</v>
+        <v>7119.798849248724</v>
       </c>
       <c r="I6" t="n">
-        <v>8495.084691689492</v>
+        <v>7119.798849248727</v>
       </c>
       <c r="J6" t="n">
-        <v>8495.08469168949</v>
+        <v>7119.798849248725</v>
       </c>
       <c r="K6" t="n">
-        <v>8495.084691689492</v>
+        <v>7119.798849248725</v>
       </c>
       <c r="L6" t="n">
-        <v>8495.084691689493</v>
+        <v>7119.798849248727</v>
       </c>
       <c r="M6" t="n">
-        <v>8495.084691689492</v>
+        <v>7119.798849248725</v>
       </c>
       <c r="N6" t="n">
-        <v>8495.084691689492</v>
+        <v>7119.798849248727</v>
       </c>
       <c r="O6" t="n">
-        <v>8495.08469168949</v>
+        <v>7119.798849248727</v>
       </c>
       <c r="P6" t="n">
-        <v>1930.520712388767</v>
+        <v>7119.798849248727</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.27845430264449</v>
+        <v>48.20925546325286</v>
       </c>
       <c r="C3" t="n">
         <v>48.20925546325286</v>
@@ -26746,40 +26746,40 @@
         <v>51.97094800593192</v>
       </c>
       <c r="E3" t="n">
-        <v>55.20250544805511</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="F3" t="n">
-        <v>55.20250544805511</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="G3" t="n">
-        <v>55.20250544805511</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="H3" t="n">
         <v>55.2025054480551</v>
       </c>
       <c r="I3" t="n">
-        <v>55.20250544805511</v>
+        <v>55.2025054480551</v>
       </c>
       <c r="J3" t="n">
         <v>55.20250544805511</v>
       </c>
       <c r="K3" t="n">
-        <v>55.2025054480551</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="L3" t="n">
-        <v>55.2025054480551</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="M3" t="n">
         <v>55.2025054480551</v>
       </c>
       <c r="N3" t="n">
-        <v>55.2025054480551</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="O3" t="n">
-        <v>55.2025054480551</v>
+        <v>55.20250544805511</v>
       </c>
       <c r="P3" t="n">
-        <v>64.48974078097982</v>
+        <v>55.20250544805511</v>
       </c>
     </row>
     <row r="4">
@@ -26831,7 +26831,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.27845430264449</v>
+        <v>48.20925546325286</v>
       </c>
       <c r="C3" t="n">
-        <v>2.930801160608375</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>3.761692542679064</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.287235332924716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1820239368950531</v>
+        <v>0.1938060521135792</v>
       </c>
       <c r="H2" t="n">
-        <v>1.864152643726463</v>
+        <v>1.984816231208193</v>
       </c>
       <c r="I2" t="n">
-        <v>7.017477827146541</v>
+        <v>7.471707824108769</v>
       </c>
       <c r="J2" t="n">
-        <v>15.44905411404652</v>
+        <v>16.44904641557491</v>
       </c>
       <c r="K2" t="n">
-        <v>23.15412736281413</v>
+        <v>24.65285660154272</v>
       </c>
       <c r="L2" t="n">
-        <v>28.72474242156611</v>
+        <v>30.58404856891367</v>
       </c>
       <c r="M2" t="n">
-        <v>31.96181060932351</v>
+        <v>34.03064694818853</v>
       </c>
       <c r="N2" t="n">
-        <v>32.47898612002658</v>
+        <v>34.58129839375625</v>
       </c>
       <c r="O2" t="n">
-        <v>30.6689855975264</v>
+        <v>32.65413946305184</v>
       </c>
       <c r="P2" t="n">
-        <v>26.17526965542977</v>
+        <v>27.86955255149785</v>
       </c>
       <c r="Q2" t="n">
-        <v>19.65653741537568</v>
+        <v>20.92887331018029</v>
       </c>
       <c r="R2" t="n">
-        <v>11.43406112598389</v>
+        <v>12.17416942107963</v>
       </c>
       <c r="S2" t="n">
-        <v>4.147870461996026</v>
+        <v>4.416355412538191</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7968097837580952</v>
+        <v>0.8483859931271933</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01456191495160424</v>
+        <v>0.01550448416908633</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09739139227361267</v>
+        <v>0.103695379675676</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9405958148530489</v>
+        <v>1.001479061604555</v>
       </c>
       <c r="I3" t="n">
-        <v>3.353168549771314</v>
+        <v>3.570213730061651</v>
       </c>
       <c r="J3" t="n">
-        <v>9.201350793710048</v>
+        <v>9.796939357867265</v>
       </c>
       <c r="K3" t="n">
-        <v>15.7265740760421</v>
+        <v>16.74452979613755</v>
       </c>
       <c r="L3" t="n">
-        <v>21.14631962502279</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -31147,22 +31147,22 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>18.59748437196732</v>
+        <v>19.80126947508588</v>
       </c>
       <c r="Q3" t="n">
-        <v>12.43192579268081</v>
+        <v>13.23662425474067</v>
       </c>
       <c r="R3" t="n">
-        <v>6.046809425549393</v>
+        <v>6.438209625828375</v>
       </c>
       <c r="S3" t="n">
-        <v>1.809002395959427</v>
+        <v>1.926096197045997</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3925556556993421</v>
+        <v>0.4179651487804657</v>
       </c>
       <c r="U3" t="n">
-        <v>0.006407328439053468</v>
+        <v>0.006822064452347106</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08164967169329333</v>
+        <v>0.08693472296652154</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7259398083276448</v>
+        <v>0.7729287187387103</v>
       </c>
       <c r="I4" t="n">
-        <v>2.455428308740131</v>
+        <v>2.614364214302303</v>
       </c>
       <c r="J4" t="n">
-        <v>5.772631788715838</v>
+        <v>6.146284913733073</v>
       </c>
       <c r="K4" t="n">
-        <v>9.486207311275351</v>
+        <v>10.10023417738314</v>
       </c>
       <c r="L4" t="n">
-        <v>12.13907937156472</v>
+        <v>12.92482235813176</v>
       </c>
       <c r="M4" t="n">
-        <v>12.79895717279506</v>
+        <v>13.62741298283392</v>
       </c>
       <c r="N4" t="n">
-        <v>12.49462657830189</v>
+        <v>13.3033835608678</v>
       </c>
       <c r="O4" t="n">
-        <v>11.54080995897568</v>
+        <v>12.28782793348616</v>
       </c>
       <c r="P4" t="n">
-        <v>9.875156656432491</v>
+        <v>10.51435958496911</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.837046599699317</v>
+        <v>7.279597574951182</v>
       </c>
       <c r="R4" t="n">
-        <v>3.671266147227533</v>
+        <v>3.90890127084014</v>
       </c>
       <c r="S4" t="n">
-        <v>1.422931096691302</v>
+        <v>1.51503512660747</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3488667790531623</v>
+        <v>0.3714483617660465</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004453618455997823</v>
+        <v>0.00474189397999209</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2219196198916787</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H11" t="n">
         <v>2.272734307215655</v>
@@ -31788,10 +31788,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S11" t="n">
-        <v>5.056993338281632</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9714531360758238</v>
+        <v>0.9714531360758237</v>
       </c>
       <c r="U11" t="n">
         <v>0.01775356959133429</v>
@@ -31873,7 +31873,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U12" t="n">
-        <v>0.007811675299253085</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31928,22 +31928,22 @@
         <v>14.799701214713</v>
       </c>
       <c r="M13" t="n">
-        <v>15.60420985968548</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N13" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O13" t="n">
-        <v>14.07030417551412</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P13" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.335578322656321</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R13" t="n">
-        <v>4.475927736820991</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S13" t="n">
         <v>1.734806605638059</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2219196198916787</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H14" t="n">
         <v>2.272734307215655</v>
@@ -32025,10 +32025,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S14" t="n">
-        <v>5.056993338281632</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9714531360758238</v>
+        <v>0.9714531360758237</v>
       </c>
       <c r="U14" t="n">
         <v>0.01775356959133429</v>
@@ -32110,7 +32110,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U15" t="n">
-        <v>0.007811675299253085</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32165,22 +32165,22 @@
         <v>14.799701214713</v>
       </c>
       <c r="M16" t="n">
-        <v>15.60420985968548</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N16" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O16" t="n">
-        <v>14.07030417551412</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P16" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q16" t="n">
-        <v>8.335578322656321</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R16" t="n">
-        <v>4.475927736820991</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S16" t="n">
         <v>1.734806605638059</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2219196198916787</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H17" t="n">
         <v>2.272734307215655</v>
@@ -32262,10 +32262,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S17" t="n">
-        <v>5.056993338281632</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T17" t="n">
-        <v>0.9714531360758238</v>
+        <v>0.9714531360758237</v>
       </c>
       <c r="U17" t="n">
         <v>0.01775356959133429</v>
@@ -32347,7 +32347,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007811675299253085</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32402,22 +32402,22 @@
         <v>14.799701214713</v>
       </c>
       <c r="M19" t="n">
-        <v>15.60420985968548</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N19" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O19" t="n">
-        <v>14.07030417551412</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P19" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.335578322656321</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R19" t="n">
-        <v>4.475927736820991</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S19" t="n">
         <v>1.734806605638059</v>
@@ -32466,7 +32466,7 @@
         <v>0.2219196198916786</v>
       </c>
       <c r="H20" t="n">
-        <v>2.272734307215655</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I20" t="n">
         <v>8.555556145873949</v>
@@ -32502,7 +32502,7 @@
         <v>5.056993338281631</v>
       </c>
       <c r="T20" t="n">
-        <v>0.9714531360758237</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U20" t="n">
         <v>0.01775356959133429</v>
@@ -32545,7 +32545,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H21" t="n">
-        <v>1.146753933930353</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I21" t="n">
         <v>4.08811007327578</v>
@@ -32575,7 +32575,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R21" t="n">
-        <v>7.372138369081777</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S21" t="n">
         <v>2.205496326155785</v>
@@ -32624,13 +32624,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8850500053802939</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I22" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J22" t="n">
-        <v>7.037866965074172</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K22" t="n">
         <v>11.56537737092039</v>
@@ -32660,7 +32660,7 @@
         <v>1.734806605638059</v>
       </c>
       <c r="T22" t="n">
-        <v>0.4253307796817359</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U22" t="n">
         <v>0.005429754634234934</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2219196198916787</v>
+        <v>0.2219196198916786</v>
       </c>
       <c r="H23" t="n">
-        <v>2.272734307215655</v>
+        <v>2.272734307215654</v>
       </c>
       <c r="I23" t="n">
         <v>8.555556145873949</v>
@@ -32736,10 +32736,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S23" t="n">
-        <v>5.056993338281632</v>
+        <v>5.056993338281631</v>
       </c>
       <c r="T23" t="n">
-        <v>0.9714531360758238</v>
+        <v>0.9714531360758236</v>
       </c>
       <c r="U23" t="n">
         <v>0.01775356959133429</v>
@@ -32782,7 +32782,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H24" t="n">
-        <v>1.146753933930353</v>
+        <v>1.146753933930352</v>
       </c>
       <c r="I24" t="n">
         <v>4.08811007327578</v>
@@ -32812,7 +32812,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R24" t="n">
-        <v>7.372138369081777</v>
+        <v>7.372138369081776</v>
       </c>
       <c r="S24" t="n">
         <v>2.205496326155785</v>
@@ -32821,7 +32821,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U24" t="n">
-        <v>0.007811675299253085</v>
+        <v>0.007811675299253084</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,13 +32861,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8850500053802939</v>
+        <v>0.8850500053802938</v>
       </c>
       <c r="I25" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J25" t="n">
-        <v>7.037866965074172</v>
+        <v>7.037866965074171</v>
       </c>
       <c r="K25" t="n">
         <v>11.56537737092039</v>
@@ -32876,28 +32876,28 @@
         <v>14.799701214713</v>
       </c>
       <c r="M25" t="n">
-        <v>15.60420985968548</v>
+        <v>15.60420985968547</v>
       </c>
       <c r="N25" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O25" t="n">
-        <v>14.07030417551412</v>
+        <v>14.07030417551411</v>
       </c>
       <c r="P25" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q25" t="n">
-        <v>8.335578322656321</v>
+        <v>8.335578322656319</v>
       </c>
       <c r="R25" t="n">
-        <v>4.475927736820991</v>
+        <v>4.47592773682099</v>
       </c>
       <c r="S25" t="n">
         <v>1.734806605638059</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4253307796817359</v>
+        <v>0.4253307796817358</v>
       </c>
       <c r="U25" t="n">
         <v>0.005429754634234934</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2219196198916786</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H29" t="n">
-        <v>2.272734307215654</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I29" t="n">
         <v>8.555556145873949</v>
@@ -33210,10 +33210,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S29" t="n">
-        <v>5.056993338281631</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T29" t="n">
-        <v>0.9714531360758236</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U29" t="n">
         <v>0.01775356959133429</v>
@@ -33256,7 +33256,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H30" t="n">
-        <v>1.146753933930352</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I30" t="n">
         <v>4.08811007327578</v>
@@ -33286,7 +33286,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R30" t="n">
-        <v>7.372138369081776</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S30" t="n">
         <v>2.205496326155785</v>
@@ -33295,7 +33295,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007811675299253084</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,13 +33335,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8850500053802938</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I31" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J31" t="n">
-        <v>7.037866965074171</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K31" t="n">
         <v>11.56537737092039</v>
@@ -33350,28 +33350,28 @@
         <v>14.799701214713</v>
       </c>
       <c r="M31" t="n">
-        <v>15.60420985968547</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N31" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O31" t="n">
-        <v>14.07030417551411</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P31" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q31" t="n">
-        <v>8.335578322656319</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R31" t="n">
-        <v>4.47592773682099</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S31" t="n">
         <v>1.734806605638059</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4253307796817358</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U31" t="n">
         <v>0.005429754634234934</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2219196198916786</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H32" t="n">
-        <v>2.272734307215654</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I32" t="n">
         <v>8.555556145873949</v>
@@ -33447,10 +33447,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S32" t="n">
-        <v>5.056993338281631</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T32" t="n">
-        <v>0.9714531360758236</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U32" t="n">
         <v>0.01775356959133429</v>
@@ -33493,7 +33493,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H33" t="n">
-        <v>1.146753933930352</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I33" t="n">
         <v>4.08811007327578</v>
@@ -33523,7 +33523,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R33" t="n">
-        <v>7.372138369081776</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S33" t="n">
         <v>2.205496326155785</v>
@@ -33532,7 +33532,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U33" t="n">
-        <v>0.007811675299253084</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,13 +33572,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8850500053802938</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I34" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J34" t="n">
-        <v>7.037866965074171</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K34" t="n">
         <v>11.56537737092039</v>
@@ -33587,28 +33587,28 @@
         <v>14.799701214713</v>
       </c>
       <c r="M34" t="n">
-        <v>15.60420985968547</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N34" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O34" t="n">
-        <v>14.07030417551411</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P34" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q34" t="n">
-        <v>8.335578322656319</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R34" t="n">
-        <v>4.47592773682099</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S34" t="n">
         <v>1.734806605638059</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4253307796817358</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U34" t="n">
         <v>0.005429754634234934</v>
@@ -33651,7 +33651,7 @@
         <v>0.2219196198916786</v>
       </c>
       <c r="H35" t="n">
-        <v>2.272734307215654</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I35" t="n">
         <v>8.555556145873949</v>
@@ -33687,7 +33687,7 @@
         <v>5.056993338281631</v>
       </c>
       <c r="T35" t="n">
-        <v>0.9714531360758236</v>
+        <v>0.9714531360758237</v>
       </c>
       <c r="U35" t="n">
         <v>0.01775356959133429</v>
@@ -33730,7 +33730,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H36" t="n">
-        <v>1.146753933930352</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I36" t="n">
         <v>4.08811007327578</v>
@@ -33760,7 +33760,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R36" t="n">
-        <v>7.372138369081776</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S36" t="n">
         <v>2.205496326155785</v>
@@ -33809,13 +33809,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8850500053802938</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I37" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J37" t="n">
-        <v>7.037866965074171</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K37" t="n">
         <v>11.56537737092039</v>
@@ -33845,7 +33845,7 @@
         <v>1.734806605638059</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4253307796817358</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U37" t="n">
         <v>0.005429754634234934</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2219196198916786</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H38" t="n">
-        <v>2.272734307215654</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I38" t="n">
         <v>8.555556145873949</v>
@@ -33921,10 +33921,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S38" t="n">
-        <v>5.056993338281631</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T38" t="n">
-        <v>0.9714531360758236</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U38" t="n">
         <v>0.01775356959133429</v>
@@ -33967,7 +33967,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H39" t="n">
-        <v>1.146753933930352</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I39" t="n">
         <v>4.08811007327578</v>
@@ -33997,7 +33997,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R39" t="n">
-        <v>7.372138369081776</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S39" t="n">
         <v>2.205496326155785</v>
@@ -34006,7 +34006,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U39" t="n">
-        <v>0.007811675299253084</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,13 +34046,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8850500053802938</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I40" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J40" t="n">
-        <v>7.037866965074171</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K40" t="n">
         <v>11.56537737092039</v>
@@ -34061,28 +34061,28 @@
         <v>14.799701214713</v>
       </c>
       <c r="M40" t="n">
-        <v>15.60420985968547</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N40" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O40" t="n">
-        <v>14.07030417551411</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P40" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q40" t="n">
-        <v>8.335578322656319</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R40" t="n">
-        <v>4.47592773682099</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S40" t="n">
         <v>1.734806605638059</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4253307796817358</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U40" t="n">
         <v>0.005429754634234934</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2219196198916786</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H41" t="n">
-        <v>2.272734307215654</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I41" t="n">
         <v>8.555556145873949</v>
@@ -34158,10 +34158,10 @@
         <v>13.94015832302067</v>
       </c>
       <c r="S41" t="n">
-        <v>5.056993338281631</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T41" t="n">
-        <v>0.9714531360758236</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U41" t="n">
         <v>0.01775356959133429</v>
@@ -34204,7 +34204,7 @@
         <v>0.1187374645486468</v>
       </c>
       <c r="H42" t="n">
-        <v>1.146753933930352</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I42" t="n">
         <v>4.08811007327578</v>
@@ -34234,7 +34234,7 @@
         <v>15.15673319396411</v>
       </c>
       <c r="R42" t="n">
-        <v>7.372138369081776</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S42" t="n">
         <v>2.205496326155785</v>
@@ -34243,7 +34243,7 @@
         <v>0.4785953066675719</v>
       </c>
       <c r="U42" t="n">
-        <v>0.007811675299253084</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,13 +34283,13 @@
         <v>0.09954550162764034</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8850500053802938</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I43" t="n">
         <v>2.993604721674858</v>
       </c>
       <c r="J43" t="n">
-        <v>7.037866965074171</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K43" t="n">
         <v>11.56537737092039</v>
@@ -34298,28 +34298,28 @@
         <v>14.799701214713</v>
       </c>
       <c r="M43" t="n">
-        <v>15.60420985968547</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N43" t="n">
         <v>15.2331766263461</v>
       </c>
       <c r="O43" t="n">
-        <v>14.07030417551411</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P43" t="n">
         <v>12.03957594231024</v>
       </c>
       <c r="Q43" t="n">
-        <v>8.335578322656319</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R43" t="n">
-        <v>4.47592773682099</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S43" t="n">
         <v>1.734806605638059</v>
       </c>
       <c r="T43" t="n">
-        <v>0.4253307796817358</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U43" t="n">
         <v>0.005429754634234934</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2592552393205217</v>
+        <v>0.2219196198916787</v>
       </c>
       <c r="H44" t="n">
-        <v>2.655097719691293</v>
+        <v>2.272734307215655</v>
       </c>
       <c r="I44" t="n">
-        <v>9.994937613904421</v>
+        <v>8.555556145873949</v>
       </c>
       <c r="J44" t="n">
-        <v>22.00396436828015</v>
+        <v>18.83515033878138</v>
       </c>
       <c r="K44" t="n">
-        <v>32.97823864871783</v>
+        <v>28.22900784879614</v>
       </c>
       <c r="L44" t="n">
-        <v>40.91242117907326</v>
+        <v>35.02058041605611</v>
       </c>
       <c r="M44" t="n">
-        <v>43.72189474747329</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>43.5702546824875</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>43.68159120406558</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.2812274833402</v>
+        <v>31.91231873994828</v>
       </c>
       <c r="Q44" t="n">
-        <v>27.996649225174</v>
+        <v>23.96482235257753</v>
       </c>
       <c r="R44" t="n">
-        <v>16.28544192696774</v>
+        <v>13.94015832302067</v>
       </c>
       <c r="S44" t="n">
-        <v>5.907778766016394</v>
+        <v>5.056993338281632</v>
       </c>
       <c r="T44" t="n">
-        <v>1.134889810125584</v>
+        <v>0.9714531360758238</v>
       </c>
       <c r="U44" t="n">
-        <v>0.02074041914564173</v>
+        <v>0.01775356959133429</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1387137820572019</v>
+        <v>0.1187374645486468</v>
       </c>
       <c r="H45" t="n">
-        <v>1.339683105657713</v>
+        <v>1.146753933930353</v>
       </c>
       <c r="I45" t="n">
-        <v>4.775891180478223</v>
+        <v>4.08811007327578</v>
       </c>
       <c r="J45" t="n">
-        <v>13.10541043550081</v>
+        <v>11.21808650808071</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>19.17349663284005</v>
       </c>
       <c r="L45" t="n">
-        <v>28.80571856227104</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>24.41583818672687</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>27.63366006158314</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>29.4625215702637</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>26.48824843511603</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>17.70669260084563</v>
+        <v>15.15673319396411</v>
       </c>
       <c r="R45" t="n">
-        <v>8.612422363165573</v>
+        <v>7.372138369081777</v>
       </c>
       <c r="S45" t="n">
-        <v>2.576547662334428</v>
+        <v>2.205496326155785</v>
       </c>
       <c r="T45" t="n">
-        <v>0.5591138846954757</v>
+        <v>0.4785953066675719</v>
       </c>
       <c r="U45" t="n">
-        <v>0.009125906714289601</v>
+        <v>0.007811675299253085</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1162929751788161</v>
+        <v>0.09954550162764034</v>
       </c>
       <c r="H46" t="n">
-        <v>1.033950270226202</v>
+        <v>0.8850500053802939</v>
       </c>
       <c r="I46" t="n">
-        <v>3.497246926286578</v>
+        <v>2.993604721674858</v>
       </c>
       <c r="J46" t="n">
-        <v>8.221913345142294</v>
+        <v>7.037866965074172</v>
       </c>
       <c r="K46" t="n">
-        <v>13.5111292980479</v>
+        <v>11.56537737092039</v>
       </c>
       <c r="L46" t="n">
-        <v>17.28959378249416</v>
+        <v>14.799701214713</v>
       </c>
       <c r="M46" t="n">
-        <v>18.22945246371204</v>
+        <v>15.60420985968548</v>
       </c>
       <c r="N46" t="n">
-        <v>17.79599682895465</v>
+        <v>15.2331766263461</v>
       </c>
       <c r="O46" t="n">
-        <v>16.43748343709303</v>
+        <v>14.07030417551412</v>
       </c>
       <c r="P46" t="n">
-        <v>14.06510674344517</v>
+        <v>12.03957594231024</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.737950857927952</v>
+        <v>8.335578322656321</v>
       </c>
       <c r="R46" t="n">
-        <v>5.228955047585673</v>
+        <v>4.475927736820991</v>
       </c>
       <c r="S46" t="n">
-        <v>2.026669394707184</v>
+        <v>1.734806605638059</v>
       </c>
       <c r="T46" t="n">
-        <v>0.496888166673123</v>
+        <v>0.4253307796817359</v>
       </c>
       <c r="U46" t="n">
-        <v>0.006343253191571792</v>
+        <v>0.005429754634234934</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.600378746450332</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1.319057674398896</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>6.290631848041478</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>4.717407230287371</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
